--- a/htdocs/assignment/data/questions.xlsx
+++ b/htdocs/assignment/data/questions.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C021AE72-5FFC-49BB-B491-79AE5424D413}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="143">
   <si>
     <t>CO2013</t>
   </si>
@@ -441,19 +442,19 @@
     <t>answer</t>
   </si>
   <si>
-    <t>difficulty</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>code</t>
   </si>
   <si>
-    <t>img</t>
+    <t>image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -489,12 +490,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,29 +779,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -827,7 +832,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -843,8 +848,8 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
+      <c r="G2" s="3">
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -853,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,8 +874,8 @@
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
+      <c r="G3" s="3">
+        <v>2</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -879,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -895,8 +900,8 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
+      <c r="G4" s="3">
+        <v>3</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -905,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -921,8 +926,8 @@
       <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
+      <c r="G5" s="3">
+        <v>4</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -931,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -947,8 +952,8 @@
       <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
+      <c r="G6" s="3">
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -957,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
@@ -973,8 +978,8 @@
       <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
+      <c r="G7" s="3">
+        <v>2</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
@@ -983,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
@@ -999,8 +1004,8 @@
       <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
+      <c r="G8" s="3">
+        <v>3</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -1009,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1025,8 +1030,8 @@
       <c r="F9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>39</v>
+      <c r="G9" s="3">
+        <v>4</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -1035,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1051,8 +1056,8 @@
       <c r="F10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
+      <c r="G10" s="3">
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
@@ -1061,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
@@ -1077,8 +1082,8 @@
       <c r="F11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>47</v>
+      <c r="G11" s="3">
+        <v>2</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1087,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
@@ -1103,8 +1108,8 @@
       <c r="F12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>51</v>
+      <c r="G12" s="4">
+        <v>3</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -1113,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>55</v>
       </c>
@@ -1129,8 +1134,8 @@
       <c r="F13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>57</v>
+      <c r="G13" s="4">
+        <v>4</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -1139,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
@@ -1155,8 +1160,8 @@
       <c r="F14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>24</v>
+      <c r="G14" s="4">
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1165,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
@@ -1181,8 +1186,8 @@
       <c r="F15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>64</v>
+      <c r="G15" s="4">
+        <v>2</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -1191,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>66</v>
       </c>
@@ -1207,8 +1212,8 @@
       <c r="F16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>68</v>
+      <c r="G16" s="4">
+        <v>3</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
@@ -1217,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>71</v>
       </c>
@@ -1233,8 +1238,8 @@
       <c r="F17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>72</v>
+      <c r="G17" s="4">
+        <v>4</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1243,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>76</v>
       </c>
@@ -1259,8 +1264,8 @@
       <c r="F18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>80</v>
+      <c r="G18" s="4">
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -1269,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
@@ -1285,8 +1290,8 @@
       <c r="F19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>84</v>
+      <c r="G19" s="4">
+        <v>2</v>
       </c>
       <c r="H19" s="1">
         <v>2</v>
@@ -1295,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>86</v>
       </c>
@@ -1311,8 +1316,8 @@
       <c r="F20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>87</v>
+      <c r="G20" s="4">
+        <v>3</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -1321,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>90</v>
       </c>
@@ -1337,8 +1342,8 @@
       <c r="F21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>91</v>
+      <c r="G21" s="4">
+        <v>4</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
@@ -1347,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>95</v>
       </c>
@@ -1363,8 +1368,8 @@
       <c r="F22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>97</v>
+      <c r="G22" s="4">
+        <v>1</v>
       </c>
       <c r="H22" s="1">
         <v>2</v>
@@ -1373,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>99</v>
       </c>
@@ -1389,8 +1394,8 @@
       <c r="F23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>101</v>
+      <c r="G23" s="4">
+        <v>2</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1399,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>104</v>
       </c>
@@ -1415,8 +1420,8 @@
       <c r="F24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>105</v>
+      <c r="G24" s="4">
+        <v>3</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -1425,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>109</v>
       </c>
@@ -1441,8 +1446,8 @@
       <c r="F25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>113</v>
+      <c r="G25" s="4">
+        <v>4</v>
       </c>
       <c r="H25" s="1">
         <v>2</v>
@@ -1451,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>114</v>
       </c>
@@ -1467,8 +1472,8 @@
       <c r="F26" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>115</v>
+      <c r="G26" s="4">
+        <v>1</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -1477,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>116</v>
       </c>
@@ -1493,8 +1498,8 @@
       <c r="F27" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>112</v>
+      <c r="G27" s="4">
+        <v>2</v>
       </c>
       <c r="H27" s="1">
         <v>1</v>
@@ -1503,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>117</v>
       </c>
@@ -1519,8 +1524,8 @@
       <c r="F28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>111</v>
+      <c r="G28" s="4">
+        <v>3</v>
       </c>
       <c r="H28" s="1">
         <v>2</v>
@@ -1529,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>118</v>
       </c>
@@ -1545,8 +1550,8 @@
       <c r="F29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>120</v>
+      <c r="G29" s="4">
+        <v>4</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -1555,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>123</v>
       </c>
@@ -1571,8 +1576,8 @@
       <c r="F30" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>127</v>
+      <c r="G30" s="4">
+        <v>1</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
@@ -1581,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>128</v>
       </c>
@@ -1597,8 +1602,8 @@
       <c r="F31" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>130</v>
+      <c r="G31" s="4">
+        <v>1</v>
       </c>
       <c r="H31" s="1">
         <v>2</v>
@@ -1607,14 +1612,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
     </row>
   </sheetData>
